--- a/Demo3/Documentação/auto-avaliacao_do_grupo.xlsx
+++ b/Demo3/Documentação/auto-avaliacao_do_grupo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>Divisão Relativa de notas</t>
   </si>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,9 @@
       <c r="G11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -817,7 +819,9 @@
       <c r="G12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -827,12 +831,24 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -863,12 +879,24 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">

--- a/Demo3/Documentação/auto-avaliacao_do_grupo.xlsx
+++ b/Demo3/Documentação/auto-avaliacao_do_grupo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15600" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="divisão de notas" sheetId="2" r:id="rId1"/>
@@ -671,7 +671,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -852,6 +852,9 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1080626</v>
+      </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
